--- a/Data/MediumData.xlsx
+++ b/Data/MediumData.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lietotajs\Documents\IgenRNA testcase\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lietotajs\Documents\COBRA examples\2021-10-20 (IgemRNA)\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A566A598-9EB0-4A0C-A0AE-021668CFDFFC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652E5875-5001-43C1-A24A-BD41DA188949}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16140" windowHeight="5400" xr2:uid="{DFDB5C1B-6D9E-43F9-AA5D-9D91231D254A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{DFDB5C1B-6D9E-43F9-AA5D-9D91231D254A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SRR8994357_WT" sheetId="1" r:id="rId1"/>
+    <sheet name="SRR8994358_WT" sheetId="2" r:id="rId2"/>
+    <sheet name="SRR8994359_WT" sheetId="3" r:id="rId3"/>
+    <sheet name="SRR8994378_S47D" sheetId="4" r:id="rId4"/>
+    <sheet name="SRR8994379_S47D" sheetId="5" r:id="rId5"/>
+    <sheet name="SRR8994380_S47D" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
   <si>
     <t>ReactionId</t>
   </si>
@@ -403,7 +408,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,4 +454,269 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F1DF747-19A6-4D2A-9E28-952669146AAC}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-15</v>
+      </c>
+      <c r="C2">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E2805D-5179-4B7D-A2F3-B895DDC8EF23}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-15</v>
+      </c>
+      <c r="C2">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3639BB-3B1B-4929-8D88-53BAE7DDCC27}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-15</v>
+      </c>
+      <c r="C2">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59BA8CAC-382D-4CDE-9BAD-A6B23EA1F97E}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-15</v>
+      </c>
+      <c r="C2">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF16E26-0B5F-4C94-A8D5-FE26CFA677D1}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-15</v>
+      </c>
+      <c r="C2">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>